--- a/model_summaries.xlsx
+++ b/model_summaries.xlsx
@@ -17,12 +17,14 @@
     <sheet name="Model 9" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Model 10" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Model 11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Model 12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Model 13" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
   <si>
     <t xml:space="preserve">effect</t>
   </si>
@@ -66,663 +68,615 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01018571163951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0191988236919864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6170627870896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">-4.24541729786191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491248195830998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.64210257440302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51878471235374e-18</t>
   </si>
   <si>
     <t xml:space="preserve">ForestNumba Primary</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0760821705894066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.023117616827926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29109056334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000997997784986727</t>
+    <t xml:space="preserve">1.68082356015827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499168729846003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36724530135695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000759231220780252</t>
   </si>
   <si>
     <t xml:space="preserve">StratumUN</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0258776385174324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0180948626269319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4301096974849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152685537366301</t>
+    <t xml:space="preserve">0.438769957795143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318434132657539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37789863835677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168234585423829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 2: ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 2: species.per.bait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 2: Forest + Lianas.n.log + Stratum + dw.percent.log + dw.number.log + trunk.log + Caco + slope.var + (1 | Block/Plot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.41019512466749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90429417583759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.105062555789483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916326170969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55757609966968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51456714131685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02696378102112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00247023554772829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lianas.n.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.450900940886836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236137103090238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90948789913175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0561991812890545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771738610944142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.473325222141289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6304616252074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103003969349117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw.percent.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0235113323649635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387553290000956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06066606314942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951625159561824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw.number.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13591386385797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359530366629174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.378031667066815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705407069582214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trunk.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0115410098348025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.268549397632915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0429753704030946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965721167281043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0730889737064638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0607546432844753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.20301872836673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228969073228231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope.var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00521823136619524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0473475654853011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.110211186419188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912241890840492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3: ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3: occupancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3: Forest * Stratum + (1 | Block/Plot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3307584010075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.622422042232615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35128606477388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73313400032112e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.57572114653135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.800963339133891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.21577907587702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001300909377043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.31620604141104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362165523889439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.39543492858289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6009100883662e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForestNumba Primary:StratumUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88333910289356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.398461126620726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72653159133943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28387273993001e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4: ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4: occupancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4: Forest * Lianas.n.log * Stratum + dw.percent.log + dw.number.log * trunk.log + Caco + slope.var.log + (1 | Block/Plot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56320321728558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07959418905034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71341275910794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0866366306300462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.13325105972664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04370657718634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.00204207601466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00268175106346425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.488977849315391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373885360125318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.30782828498954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190931558181348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.07887390670679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.689083170695478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.46807299559986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89273750725964e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0252853713193831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172509223592592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.146574025392976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883468256948739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130152521494264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.594135197210106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219062129470572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826601650574972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188319834853492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178359727733524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05584280289354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.291040039252977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0034416292535393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0229824450815803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.149750352554857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880961580459581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope.var.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0999664350697583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30713158755332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.325484056739698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744814747183128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForestNumba Primary:Lianas.n.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403218672657961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.397340250168027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01479442993114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310203829458427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41911370215035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.755500115578343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20200308678774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00136475535633416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lianas.n.log:StratumUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0252953200112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478568608339929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1424207566973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0321596390795411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw.number.log:trunk.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00358107987038267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13497181884567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0265320561062999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978832965517884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForestNumba Primary:Lianas.n.log:StratumUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.602240613238478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.531078721565533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.13399499694353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.256796646632907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 5: ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 5: evenness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 5: Forest + slope.var + Caco.log + trunk_mean.log + Lianas.n_mean.log + dw.number_mean.log + dw.percent_mean.log + (1 | Block)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.938693983872446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15045282682613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.815934353833626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414537682455807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127008500894332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0390028935450352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25638662546099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00112839984600928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000330412552975146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00344882186551612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0958044705871464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92367586668006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caco.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317081837798635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257587996061146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23096511734719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218335911035287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trunk_mean.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0670581640150404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0597442776865421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12241986365409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261683962658917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lianas.n_mean.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0198798149333187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0406727952681876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.488774248296325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625001531381312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw.number_mean.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0268003840002159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0622021710435424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.430859302024285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.666570677070903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw.percent_mean.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0760620177942509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0614190421973672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23841100533332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.215563702004825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 6: ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 6: Abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 6: Forest * Stratum + (1 | Block/Plot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27817656491191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144157810551427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6770362184829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51950779291895e-193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.842245534081949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208212476206048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.04512519820599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22951691136136e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373524786055689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0832839230835151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48495666662013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29287543162565e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.342576970537042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162082503578906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.11359624248564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0345497670635021</t>
   </si>
   <si>
     <t xml:space="preserve">zi</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.88296594214397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158353961708221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.8908672813218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32028420106701e-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927520292765819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155800304105449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95326368643061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62847286258829e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822279925251867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142650509724098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76429714020824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19988389599449e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 2: ~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 2: occupancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 2: Forest * Lianas.n.log * Stratum + (1 | Block/Plot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98683657597364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836649282255829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76524233096103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88626808685696e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.16341574762679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01925201385454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.1036639659544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00191140289193052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lianas.n.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.417309038987465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365393787692366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.14208027898604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2534206519708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.26437938585075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.663533070476371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.91969357835797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66798043290229e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForestNumba Primary:Lianas.n.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385860754571229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39124471661178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986238888828515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324015900049355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForestNumba Primary:StratumUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35883374958991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74756835517711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15534189382731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00160310126931748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lianas.n.log:StratumUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915925963710617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.468258972544658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9560243741475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0504622828758001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForestNumba Primary:Lianas.n.log:StratumUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.482581137199524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522439544059642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.923707140255125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355638813533523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3: ~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3: Abundance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3: Forest * Lianas.n.log * Stratum + dw.percent.log + dw.number.log + trunk.log + Caco + slope.var.log + (1 | Block/Plot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99273253314272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1665400279295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27994960619086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86935636172131e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.05825993520356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242755294139955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.35936912911752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30437931746265e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.154141772870266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0658972447325286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.33912318331237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0193290591693351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303788174361394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14207940565305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13815769403785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0325039466953815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw.percent.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0973169842914139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0849246869344359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.14592102490228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251827830922955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw.number.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10028259951651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0724558569103343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38405097659133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166342846297147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trunk.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0366308026602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.048913965127834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.748882299042507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.453928150033037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0200449730948886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0183822395517453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.09045326269755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27551353047186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slope.var.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306852899574165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162937671218775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88325325432052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0596660551113803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160876081573648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112945944423406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42436350764897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154341272189341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.207699114442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.297590565487833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.697935816958426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485217333853658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0799136001170976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126309184761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.632682415518166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526941055267721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09946574550728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214102334140217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.464571046862755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642238670272458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.77777292439483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.767424860060868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.92266164546089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53749922566546e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56816378519254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.790490862755855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24882159452073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00115884133532259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0567930759581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.781630703743602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.910789406452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19949579257033e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.49605565905238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823572571754493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.03076589077623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00243934303450198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 4: ~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 4: expH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 4: Forest.x + Stratum + (1 | Block.x/Plot.x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4533773006167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600332664256996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0866963380264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37559211592283e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest.xNumba Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17538290215428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.755654516172614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20216227680021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64377497336113e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54628527257831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4199507628546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68206325443367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000231353987444791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 5: ~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 5: evenness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 5: Forest + slope.var + Caco.log + trunk_mean.log + Lianas.n_mean.log + dw.number_mean.log + dw.percent_mean.log + (1 | Block)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.938693983872446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15045282682613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.815934353833626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414537682455807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127008500894332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0390028935450352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25638662546099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00112839984600928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slope.var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000330412552975146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00344882186551612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0958044705871464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92367586668006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caco.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317081837798635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257587996061146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23096511734719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218335911035287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trunk_mean.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0670581640150404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0597442776865421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12241986365409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261683962658917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lianas.n_mean.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0198798149333187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0406727952681876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.488774248296325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625001531381312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw.number_mean.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0268003840002159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0622021710435424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.430859302024285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.666570677070903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw.percent_mean.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0760620177942509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0614190421973672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23841100533332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.215563702004825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 6: ~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 6: Abundance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 6: Forest * Stratum + (1 | Block/Plot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27817656491191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144157810551427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6770362184829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51950779291895e-193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.842245534081949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208212476206048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.04512519820599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22951691136136e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373524786055689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0832839230835151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48495666662013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29287543162565e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.342576970537042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162082503578906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.11359624248564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0345497670635021</t>
-  </si>
-  <si>
     <t xml:space="preserve">-3.53312252081465</t>
   </si>
   <si>
@@ -945,55 +899,70 @@
     <t xml:space="preserve">Model 8: Forest + Stratum + new.Treatment + (1 | Block/Plot)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.994607979585059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237979049796085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.17939301983641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92288175964894e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.54979021329248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310669179265417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.98855476090993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08326685250214e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.887383028906972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303959927866437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.91940794675046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00350696953113003</t>
+    <t xml:space="preserve">-1.03076468589569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250191734808618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.11989903137354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79038461948835e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.59922315600268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.293195923149001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.45445222712038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91240391839289e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.796973907737238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227760827716966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.49917022925304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000466708516091936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new.Treatmentelevation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.265327276607736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.268894968570686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9867320240988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323774026422302</t>
   </si>
   <si>
     <t xml:space="preserve">new.Treatmentfirst.placement</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.500637243763195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300950218852239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.66352178002236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0962080347958569</t>
+    <t xml:space="preserve">-0.382060281534776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.286952547362417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.33144063381406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183044066698971</t>
   </si>
   <si>
     <t xml:space="preserve">Model 9: ~</t>
@@ -1005,244 +974,331 @@
     <t xml:space="preserve">Model 9: Forest * Lianas.n.log * Stratum + dw.percent.log + dw.number.log + trunk.log + Caco + slope.var.log + new.Treatment + (1 | Block/Plot)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568826447256823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25107634693259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133807629135446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893554694274171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.8343830931267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886403887610203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.06946643484643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0385023379091276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200450621722005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26305301068392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.762016071212593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446050412344862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.388697996590108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597268130477835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.650793130849181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51518003501808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.334015263251635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41442589050369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.805971033435375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.420259551368512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.209070691010696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313447698430534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.667003433292173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50476994039519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0380059677330226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248621038844276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.152867061893453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878503111368551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0211181261449847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0618562978260719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.341406241355808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73279777714522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272695245521769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.417745962030338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652777693401056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513899606304676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.646571383986824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327624376355927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.97351427625275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0484369996722437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104018981711133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.442334172916001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23515927115784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814085116530059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.189964257758315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27265316131363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.149266322932977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881343487936923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.20830655903723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709820045740257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.70227167616422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0887044518082231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895436373427915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07514297026727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832853302482476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404927468852985</t>
+    <t xml:space="preserve">0.456955846834303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53697589348522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129193938719224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897204192218263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.6239453849127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.773416732268098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.39266694840929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000692157390958643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.232018208155744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.213284113436102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0878363344453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.276667366088683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.23801977896431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54195287309242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.28436795970853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0223499149423912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0663947962931311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.282563318421677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.234973161640353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814229563996452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0722588622673614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241390385858005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.299344408479743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.764677274001155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.127391677836386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202735936193457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.628362589426795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.529766438493924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0237807952625207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0526068600395962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.452047418238256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.651234822526396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.531480038170263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35500766562107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49709454087551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1343686600423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.027004605138758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319828807524475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0844345615636622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93271092923235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.538896206350751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300085884320964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.79580658240613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0725252835133722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66731185145016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368484376594347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81096375813182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0701464619228542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495886426019243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12273411952035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441677523999264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.658722576262728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218327457693901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383017592173062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.570019398992128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568664540825628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.427089031158568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799952777335528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.533892803749129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.593415701160394</t>
   </si>
   <si>
     <t xml:space="preserve">Model 10: ~</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 10: (1 + expH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 10: Forest.x + new.Treatment + Stratum + (1 | Block.x/Plot.x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14955047900346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115939837699431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91506027448147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58040282336041e-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.418368920933165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1366965734417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.06056626292535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00220918870414449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new.Treatmentelevation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0527373285890912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120115802122045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.439054043326512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660622377638474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.286192779973585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110589446385695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.58788509507002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0096567187409373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.261372858004281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0913882329885245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.86002748337525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00423604295451649</t>
+    <t xml:space="preserve">Model 10: expH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 10: Forest + new.Treatment + Stratum + (1 | Block/Plot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12996408994619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317569553482197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70707902124375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98558752706216e-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.600806854842505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349747638373316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.71782962606087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0858276960259071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.248602951996792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.287132388421541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.865812990876585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386592723945079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.442491437912307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328553032058352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.34678847776915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178048366705814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.602781170312879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23299726969571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.58707396485847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00967948119080175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.4987944579571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820.305277317953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0188939348392729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984925717975741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7191192546668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820.305762444239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0179434546586735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985683962781108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.7501171593228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1308949.0883257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.12686714027892e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999991008901067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0539493287618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820.307426956387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0159134842618655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987303412479622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForestNumba Primary:new.Treatmentelevation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.70475651432885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1313756.13381328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.62585413707078e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999994713333282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForestNumba Primary:new.Treatmentfirst.placement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.0123795564807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820.308122453202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0146437408428392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988316402840692</t>
   </si>
   <si>
     <t xml:space="preserve">Model 11: ~</t>
@@ -1251,199 +1307,253 @@
     <t xml:space="preserve">Model 11: (1 + expH)</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 11: Forest.x * Stratum * Lianas.n_mean.log + slope.var + Caco.log + trunk_mean.log + dw.number_mean.log + dw.percent_mean.log + new.Treatment + (1 | Block.x/Plot.x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97135947181405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67437700347584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.421737371707108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.673216723218878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.040698910187284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579450200111019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0702371147330459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94400493397094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197651504545132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.438738353176661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.450499718372117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652350157207832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184632714060023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186437300683384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990320678229376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322017402572153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0276968364143608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0167422091245518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.65431193746974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0980641487348453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.675789718980378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07654913821891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.627736993128279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53017624726539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334639267075246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116109539256273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88209968981655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00395034730642317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0679752437943596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181358254906254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.374811964470526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707800315523202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114899093855768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153010690857945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750921999054564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452699599926333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0108744136972759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115549952247824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0941100665619763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925021723914172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.257163917456099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0994943602359152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.58470848846434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00974613605138433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest.xNumba Primary:StratumUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23873823838654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784634384505539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304266857406445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760924592821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest.xNumba Primary:Lianas.n_mean.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21056626312309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301627699934418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.698099886611451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485114729000095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StratumUN:Lianas.n_mean.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190842038447591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419654179306338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.454760247504365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.649281732034094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest.xNumba Primary:StratumUN:Lianas.n_mean.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.478222545787251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646817764935911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.739346647095623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459696530691975</t>
+    <t xml:space="preserve">Model 11: Forest + new.Treatment + Stratum + Lianas.n_mean.log + slope.var + Caco.log + trunk_mean.log + dw.number_mean.log + dw.percent_mean.log + (1 | Block/Plot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68060536402883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36702654849683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.613828501901716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.539328660781177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.355428524492221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.101694482008747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.49506204733555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000473951561509475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0146582779843509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115856271296233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126521230317098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899319344719945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.266782819503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0994761703566633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.68187665998177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00732104464220819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253840190910799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189855908132209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33701496786729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18121775110078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0920039388254111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11471554100696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802018087678543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.422542495401646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0288362033313005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017029013336846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.69335725804543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0903874854053737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.787188355473779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01472074303773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.775768467211192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437885705447189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318048533214456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113344148395361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80604281488848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00501540277831803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0289971932608928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146672263651966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197700591365381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843279327004441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0734952632242743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141248079082077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520327523757454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.602835315381843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 12: ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 12: nesting.estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 12: Forest + Stratum + new.Treatment + (1 | Block/Plot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23108914617192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.204847717360391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6548025074066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83817927003659e-95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.852919078723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232436033833726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.66947871487743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000243045572522439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22780219627294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218196741425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04402199036159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.296475215652572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383336920805594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25047478974797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53044113218465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1259075742722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.55555743858475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264303335620707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.1019690776132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0355559846415909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 13: ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 13: nesting.estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 13: Forest + Lianas.n.log + Stratum + dw.percent.log + dw.number.log + trunk.log + Caco + slope.var.log + new.Treatment + (1 | Block/Plot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8695723178871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.712106264268743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103711805126576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0782576583513789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0472227689579467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0460918225145339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37035928546154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.132627255926815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.423748742558299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0787297785158429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.64314004349284</t>
   </si>
 </sst>
 </file>
@@ -1890,75 +2000,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1998,13 +2039,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -2030,16 +2071,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
@@ -2050,19 +2091,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
@@ -2073,19 +2114,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
@@ -2096,19 +2137,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E6" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F6" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G6" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7">
@@ -2122,16 +2163,154 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>403</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>404</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>405</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>406</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2173,13 +2352,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -2205,16 +2384,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="E3" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="G3" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4">
@@ -2225,19 +2404,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="E4" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="F4" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="G4" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5">
@@ -2248,19 +2427,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="F5" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="G5" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6">
@@ -2271,19 +2450,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E6" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="F6" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="G6" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7">
@@ -2294,19 +2473,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="E7" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="F7" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="G7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
@@ -2317,19 +2496,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="E8" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="F8" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="G8" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9">
@@ -2340,19 +2519,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="E9" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="F9" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="G9" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10">
@@ -2363,19 +2542,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="E10" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="F10" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="G10" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
@@ -2386,19 +2565,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="G11" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12">
@@ -2409,19 +2588,19 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="F12" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="G12" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13">
@@ -2432,111 +2611,507 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="E13" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="F13" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="G13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>454</v>
-      </c>
-      <c r="D14" t="s">
-        <v>455</v>
-      </c>
-      <c r="E14" t="s">
-        <v>456</v>
-      </c>
-      <c r="F14" t="s">
-        <v>457</v>
-      </c>
-      <c r="G14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>459</v>
-      </c>
-      <c r="D15" t="s">
-        <v>460</v>
-      </c>
-      <c r="E15" t="s">
-        <v>461</v>
-      </c>
-      <c r="F15" t="s">
-        <v>462</v>
-      </c>
-      <c r="G15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" t="s">
-        <v>465</v>
-      </c>
-      <c r="E16" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" t="s">
-        <v>467</v>
-      </c>
-      <c r="G16" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>469</v>
-      </c>
-      <c r="D17" t="s">
-        <v>470</v>
-      </c>
-      <c r="E17" t="s">
         <v>471</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>472</v>
       </c>
-      <c r="G17" t="s">
+      <c r="B2" t="s">
         <v>473</v>
+      </c>
+      <c r="C2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F6" t="s">
+        <v>489</v>
+      </c>
+      <c r="G6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" t="s">
+        <v>499</v>
+      </c>
+      <c r="G4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F5" t="s">
+        <v>499</v>
+      </c>
+      <c r="G5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" t="s">
+        <v>499</v>
+      </c>
+      <c r="G6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>505</v>
+      </c>
+      <c r="E9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F10" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E12" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" t="s">
+        <v>499</v>
+      </c>
+      <c r="G12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>509</v>
+      </c>
+      <c r="E13" t="s">
+        <v>499</v>
+      </c>
+      <c r="F13" t="s">
+        <v>499</v>
+      </c>
+      <c r="G13" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -2578,13 +3153,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -2610,16 +3185,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -2633,16 +3208,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -2653,19 +3228,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -2679,16 +3254,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -2699,19 +3274,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -2722,19 +3297,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -2745,19 +3320,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -2768,19 +3343,42 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2822,13 +3420,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -2854,16 +3452,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -2877,16 +3475,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -2897,19 +3495,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -2920,318 +3518,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3273,13 +3572,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3305,16 +3604,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -3325,19 +3624,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -3348,19 +3647,272 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" t="s">
-        <v>172</v>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3402,13 +3954,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3434,16 +3986,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3457,16 +4009,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
@@ -3477,19 +4029,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
@@ -3500,19 +4052,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -3523,19 +4075,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
@@ -3546,19 +4098,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -3569,19 +4121,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10">
@@ -3592,19 +4144,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3646,13 +4198,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3678,16 +4230,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
@@ -3701,16 +4253,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -3724,16 +4276,16 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
@@ -3744,19 +4296,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
@@ -3764,22 +4316,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
@@ -3787,22 +4339,22 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -3810,22 +4362,22 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F9" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
@@ -3833,22 +4385,22 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3890,13 +4442,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3922,16 +4474,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
@@ -3945,16 +4497,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
@@ -3965,19 +4517,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F5" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
@@ -3991,16 +4543,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
@@ -4011,19 +4563,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8">
@@ -4034,19 +4586,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9">
@@ -4057,19 +4609,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
@@ -4080,19 +4632,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="G10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11">
@@ -4103,19 +4655,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12">
@@ -4123,22 +4675,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="G12" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13">
@@ -4146,22 +4698,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F13" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G13" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14">
@@ -4169,22 +4721,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F14" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="G14" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
@@ -4192,22 +4744,22 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="G15" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4249,13 +4801,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -4281,16 +4833,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
@@ -4304,16 +4856,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="G4" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5">
@@ -4327,16 +4879,16 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="G5" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
@@ -4347,19 +4899,42 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4401,13 +4976,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -4433,16 +5008,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
@@ -4456,16 +5031,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
@@ -4476,19 +5051,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G5" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
@@ -4502,16 +5077,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F6" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G6" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7">
@@ -4522,19 +5097,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8">
@@ -4545,19 +5120,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G8" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9">
@@ -4568,19 +5143,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10">
@@ -4591,19 +5166,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="G10" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11">
@@ -4614,19 +5189,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E11" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F11" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G11" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12">
@@ -4637,19 +5212,19 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D12" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F12" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G12" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
@@ -4660,19 +5235,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G13" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14">
@@ -4683,19 +5258,19 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F14" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G14" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15">
@@ -4706,19 +5281,19 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E15" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F15" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G15" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16">
@@ -4729,19 +5304,42 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F16" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G16" t="s">
-        <v>382</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/model_summaries.xlsx
+++ b/model_summaries.xlsx
@@ -1480,64 +1480,64 @@
     <t xml:space="preserve">-1.03076468589569</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.52113147535018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.540397896441204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.11989903137354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79038461948835e-05</t>
+    <t xml:space="preserve">-1.5211314753502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.540397896441184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.11989903137337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7903846194911e-05</t>
   </si>
   <si>
     <t xml:space="preserve">-1.59922315600268</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.1738766057887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.02456970621667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.45445222712038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91240391839289e-08</t>
+    <t xml:space="preserve">-2.17387660578874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.02456970621662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.45445222711995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91240391840483e-08</t>
   </si>
   <si>
     <t xml:space="preserve">-0.796973907737238</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.24337692715152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.350570888322953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.49917022925304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000466708516091936</t>
+    <t xml:space="preserve">-1.24337692715155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.350570888322923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.4991702292528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000466708516092355</t>
   </si>
   <si>
     <t xml:space="preserve">new Treatment [elevation]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.265327276607736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.261697177414838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792351730630311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9867320240988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323774026422302</t>
+    <t xml:space="preserve">0.265327276607737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.261697177414871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792351730630344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986732024098739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323774026422332</t>
   </si>
   <si>
     <t xml:space="preserve">new Treatment [first.placement]</t>
@@ -1546,22 +1546,22 @@
     <t xml:space="preserve">-0.382060281534776</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.944476939637137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180356376567584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.33144063381406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183044066698971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73810831231284e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225672870440271</t>
+    <t xml:space="preserve">-0.944476939637103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18035637656755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.33144063381414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183044066698945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73810831114624e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225672870440272</t>
   </si>
   <si>
     <t xml:space="preserve">597.202287004726</t>
